--- a/public/Siswadata/Data Siswa SD ITT.xlsx
+++ b/public/Siswadata/Data Siswa SD ITT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafif\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{505DACA7-CDC3-4A32-9E60-C2FF45202390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E216477-28B5-4FC2-9C53-C4F970BE338F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2770" uniqueCount="1768">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2769" uniqueCount="1768">
   <si>
     <t>No</t>
   </si>
@@ -5910,13 +5910,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S205"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="37" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
@@ -5925,11 +5925,13 @@
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" customWidth="1"/>
     <col min="11" max="11" width="59.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="15.42578125" customWidth="1"/>
-    <col min="15" max="15" width="15" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="17" width="15" hidden="1" customWidth="1"/>
+    <col min="12" max="13" width="15.42578125" customWidth="1"/>
+    <col min="14" max="14" width="19.5703125" customWidth="1"/>
+    <col min="15" max="15" width="26.85546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="33.42578125" customWidth="1"/>
+    <col min="17" max="17" width="51.140625" customWidth="1"/>
     <col min="18" max="18" width="29.85546875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="33.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -5983,9 +5985,7 @@
       <c r="P1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="Q1" s="3"/>
       <c r="R1" s="11" t="s">
         <v>11</v>
       </c>
@@ -6034,9 +6034,6 @@
       <c r="P2">
         <v>16</v>
       </c>
-      <c r="Q2">
-        <v>108</v>
-      </c>
       <c r="R2" s="21" t="s">
         <v>615</v>
       </c>
@@ -6085,9 +6082,6 @@
       <c r="P3">
         <v>15</v>
       </c>
-      <c r="Q3">
-        <v>110</v>
-      </c>
       <c r="R3" s="21" t="s">
         <v>616</v>
       </c>
@@ -6136,9 +6130,6 @@
       <c r="P4">
         <v>22</v>
       </c>
-      <c r="Q4">
-        <v>110</v>
-      </c>
       <c r="R4" s="21" t="s">
         <v>617</v>
       </c>
@@ -6187,9 +6178,6 @@
       <c r="P5">
         <v>22</v>
       </c>
-      <c r="Q5">
-        <v>110</v>
-      </c>
       <c r="R5" s="21" t="s">
         <v>618</v>
       </c>
@@ -6238,9 +6226,6 @@
       <c r="P6">
         <v>15</v>
       </c>
-      <c r="Q6">
-        <v>110</v>
-      </c>
       <c r="R6" s="21" t="s">
         <v>619</v>
       </c>
@@ -6289,9 +6274,6 @@
       <c r="P7">
         <v>16</v>
       </c>
-      <c r="Q7">
-        <v>114</v>
-      </c>
       <c r="R7" s="21" t="s">
         <v>620</v>
       </c>
@@ -6340,9 +6322,6 @@
       <c r="P8">
         <v>15</v>
       </c>
-      <c r="Q8">
-        <v>105</v>
-      </c>
       <c r="R8" s="21" t="s">
         <v>621</v>
       </c>
@@ -6391,9 +6370,6 @@
       <c r="P9">
         <v>25</v>
       </c>
-      <c r="Q9">
-        <v>118</v>
-      </c>
       <c r="R9" s="21" t="s">
         <v>622</v>
       </c>
@@ -6442,9 +6418,6 @@
       <c r="P10">
         <v>20</v>
       </c>
-      <c r="Q10">
-        <v>105</v>
-      </c>
       <c r="R10" s="21"/>
       <c r="S10" s="22" t="s">
         <v>662</v>
@@ -6491,9 +6464,6 @@
       <c r="P11">
         <v>20</v>
       </c>
-      <c r="Q11">
-        <v>114</v>
-      </c>
       <c r="R11" s="21" t="s">
         <v>623</v>
       </c>
@@ -6542,9 +6512,6 @@
       <c r="P12">
         <v>16</v>
       </c>
-      <c r="Q12">
-        <v>112</v>
-      </c>
       <c r="R12" s="21" t="s">
         <v>624</v>
       </c>
@@ -6593,9 +6560,6 @@
       <c r="P13">
         <v>15</v>
       </c>
-      <c r="Q13">
-        <v>110</v>
-      </c>
       <c r="R13" s="21" t="s">
         <v>625</v>
       </c>
@@ -6644,9 +6608,6 @@
       <c r="P14">
         <v>18</v>
       </c>
-      <c r="Q14">
-        <v>101</v>
-      </c>
       <c r="R14" s="21" t="s">
         <v>626</v>
       </c>
@@ -6692,9 +6653,6 @@
       <c r="P15">
         <v>15</v>
       </c>
-      <c r="Q15">
-        <v>115</v>
-      </c>
       <c r="R15" s="21" t="s">
         <v>627</v>
       </c>
@@ -6743,9 +6701,6 @@
       <c r="P16">
         <v>20</v>
       </c>
-      <c r="Q16">
-        <v>115</v>
-      </c>
       <c r="R16" s="21" t="s">
         <v>628</v>
       </c>
@@ -6794,9 +6749,6 @@
       <c r="P17">
         <v>18</v>
       </c>
-      <c r="Q17">
-        <v>114</v>
-      </c>
       <c r="R17" s="21" t="s">
         <v>629</v>
       </c>
@@ -6845,9 +6797,6 @@
       <c r="P18">
         <v>16</v>
       </c>
-      <c r="Q18">
-        <v>115</v>
-      </c>
       <c r="R18" s="21" t="s">
         <v>630</v>
       </c>
@@ -6896,9 +6845,6 @@
       <c r="P19">
         <v>24</v>
       </c>
-      <c r="Q19">
-        <v>120</v>
-      </c>
       <c r="R19" s="21" t="s">
         <v>631</v>
       </c>
@@ -6947,9 +6893,6 @@
       <c r="P20">
         <v>20</v>
       </c>
-      <c r="Q20">
-        <v>110</v>
-      </c>
       <c r="R20" s="21" t="s">
         <v>632</v>
       </c>
@@ -6998,9 +6941,6 @@
       <c r="P21">
         <v>24</v>
       </c>
-      <c r="Q21">
-        <v>115</v>
-      </c>
       <c r="R21" s="21" t="s">
         <v>633</v>
       </c>
@@ -7049,9 +6989,6 @@
       <c r="P22">
         <v>21</v>
       </c>
-      <c r="Q22">
-        <v>105</v>
-      </c>
       <c r="R22" s="21" t="s">
         <v>634</v>
       </c>
@@ -7100,9 +7037,6 @@
       <c r="P23">
         <v>16</v>
       </c>
-      <c r="Q23">
-        <v>110</v>
-      </c>
       <c r="R23" s="21" t="s">
         <v>635</v>
       </c>
@@ -7151,9 +7085,6 @@
       <c r="P24">
         <v>21</v>
       </c>
-      <c r="Q24">
-        <v>110</v>
-      </c>
       <c r="R24" s="21" t="s">
         <v>636</v>
       </c>
@@ -7202,9 +7133,6 @@
       <c r="P25">
         <v>20</v>
       </c>
-      <c r="Q25">
-        <v>120</v>
-      </c>
       <c r="R25" s="21" t="s">
         <v>637</v>
       </c>
@@ -7253,9 +7181,6 @@
       <c r="P26">
         <v>22</v>
       </c>
-      <c r="Q26">
-        <v>115</v>
-      </c>
       <c r="R26" s="21" t="s">
         <v>638</v>
       </c>
@@ -7304,9 +7229,6 @@
       <c r="P27">
         <v>29</v>
       </c>
-      <c r="Q27">
-        <v>120</v>
-      </c>
       <c r="R27" s="21" t="s">
         <v>639</v>
       </c>
@@ -7355,9 +7277,6 @@
       <c r="P28">
         <v>20</v>
       </c>
-      <c r="Q28">
-        <v>110</v>
-      </c>
       <c r="R28" s="21" t="s">
         <v>640</v>
       </c>
@@ -7406,9 +7325,6 @@
       <c r="P29">
         <v>15</v>
       </c>
-      <c r="Q29">
-        <v>113</v>
-      </c>
       <c r="R29" s="21" t="s">
         <v>641</v>
       </c>
@@ -7457,9 +7373,6 @@
       <c r="P30">
         <v>18</v>
       </c>
-      <c r="Q30">
-        <v>115</v>
-      </c>
       <c r="R30" s="21" t="s">
         <v>642</v>
       </c>
@@ -7508,9 +7421,6 @@
       <c r="P31">
         <v>22</v>
       </c>
-      <c r="Q31">
-        <v>115</v>
-      </c>
       <c r="R31" s="21" t="s">
         <v>643</v>
       </c>
@@ -7559,9 +7469,6 @@
       <c r="P32">
         <v>16</v>
       </c>
-      <c r="Q32">
-        <v>105</v>
-      </c>
       <c r="R32" s="21" t="s">
         <v>644</v>
       </c>
@@ -7610,9 +7517,6 @@
       <c r="P33">
         <v>16</v>
       </c>
-      <c r="Q33">
-        <v>115</v>
-      </c>
       <c r="R33" s="21" t="s">
         <v>645</v>
       </c>
@@ -7661,9 +7565,6 @@
       <c r="P34">
         <v>18</v>
       </c>
-      <c r="Q34">
-        <v>115</v>
-      </c>
       <c r="R34" s="21" t="s">
         <v>646</v>
       </c>
@@ -7712,9 +7613,6 @@
       <c r="P35">
         <v>22</v>
       </c>
-      <c r="Q35">
-        <v>106</v>
-      </c>
       <c r="R35" s="21" t="s">
         <v>647</v>
       </c>
@@ -7763,9 +7661,6 @@
       <c r="P36">
         <v>16</v>
       </c>
-      <c r="Q36">
-        <v>115</v>
-      </c>
       <c r="R36" s="21" t="s">
         <v>648</v>
       </c>
@@ -7814,9 +7709,6 @@
       <c r="P37">
         <v>20</v>
       </c>
-      <c r="Q37">
-        <v>110</v>
-      </c>
       <c r="R37" s="21" t="s">
         <v>649</v>
       </c>
@@ -7865,9 +7757,6 @@
       <c r="P38">
         <v>16</v>
       </c>
-      <c r="Q38">
-        <v>115</v>
-      </c>
       <c r="R38" s="21" t="s">
         <v>650</v>
       </c>
@@ -7913,9 +7802,6 @@
       <c r="P39">
         <v>16</v>
       </c>
-      <c r="Q39">
-        <v>110</v>
-      </c>
       <c r="R39" s="21" t="s">
         <v>651</v>
       </c>
@@ -7964,9 +7850,6 @@
       <c r="P40">
         <v>20</v>
       </c>
-      <c r="Q40">
-        <v>120</v>
-      </c>
       <c r="R40" s="21"/>
       <c r="S40" s="22" t="s">
         <v>692</v>
@@ -8013,9 +7896,6 @@
       <c r="P41">
         <v>18</v>
       </c>
-      <c r="Q41">
-        <v>111</v>
-      </c>
       <c r="R41" s="21" t="s">
         <v>652</v>
       </c>
@@ -8064,9 +7944,6 @@
       <c r="P42">
         <v>18</v>
       </c>
-      <c r="Q42">
-        <v>111</v>
-      </c>
       <c r="R42" s="21"/>
       <c r="S42" s="22" t="s">
         <v>694</v>
@@ -8113,9 +7990,6 @@
       <c r="P43">
         <v>22</v>
       </c>
-      <c r="Q43">
-        <v>113</v>
-      </c>
       <c r="R43" s="21" t="s">
         <v>653</v>
       </c>
@@ -8164,9 +8038,6 @@
       <c r="P44">
         <v>18</v>
       </c>
-      <c r="Q44">
-        <v>112</v>
-      </c>
       <c r="R44" s="13"/>
       <c r="S44" s="22" t="s">
         <v>696</v>
@@ -8213,9 +8084,6 @@
       <c r="P45">
         <v>18</v>
       </c>
-      <c r="Q45">
-        <v>112</v>
-      </c>
       <c r="R45" s="28" t="s">
         <v>878</v>
       </c>
@@ -8264,9 +8132,6 @@
       <c r="P46">
         <v>16</v>
       </c>
-      <c r="Q46">
-        <v>105</v>
-      </c>
       <c r="R46" s="28" t="s">
         <v>879</v>
       </c>
@@ -8315,9 +8180,6 @@
       <c r="P47">
         <v>18</v>
       </c>
-      <c r="Q47">
-        <v>109</v>
-      </c>
       <c r="R47" s="28" t="s">
         <v>880</v>
       </c>
@@ -8366,9 +8228,6 @@
       <c r="P48">
         <v>16</v>
       </c>
-      <c r="Q48">
-        <v>109</v>
-      </c>
       <c r="R48" s="28"/>
       <c r="S48" s="29" t="s">
         <v>905</v>
@@ -8415,9 +8274,6 @@
       <c r="P49">
         <v>19</v>
       </c>
-      <c r="Q49">
-        <v>109</v>
-      </c>
       <c r="R49" s="28" t="s">
         <v>881</v>
       </c>
@@ -8466,9 +8322,6 @@
       <c r="P50">
         <v>15</v>
       </c>
-      <c r="Q50">
-        <v>102</v>
-      </c>
       <c r="R50" s="28"/>
       <c r="S50" s="29" t="s">
         <v>907</v>
@@ -8515,9 +8368,6 @@
       <c r="P51">
         <v>21</v>
       </c>
-      <c r="Q51">
-        <v>112</v>
-      </c>
       <c r="R51" s="28"/>
       <c r="S51" s="29" t="s">
         <v>908</v>
@@ -8564,9 +8414,6 @@
       <c r="P52">
         <v>22</v>
       </c>
-      <c r="Q52">
-        <v>113</v>
-      </c>
       <c r="R52" s="28" t="s">
         <v>878</v>
       </c>
@@ -8615,9 +8462,6 @@
       <c r="P53">
         <v>16</v>
       </c>
-      <c r="Q53">
-        <v>112</v>
-      </c>
       <c r="R53" s="28" t="s">
         <v>882</v>
       </c>
@@ -8666,9 +8510,6 @@
       <c r="P54">
         <v>20</v>
       </c>
-      <c r="Q54">
-        <v>110</v>
-      </c>
       <c r="R54" s="28" t="s">
         <v>883</v>
       </c>
@@ -8717,9 +8558,6 @@
       <c r="P55">
         <v>19</v>
       </c>
-      <c r="Q55">
-        <v>109</v>
-      </c>
       <c r="R55" s="28" t="s">
         <v>884</v>
       </c>
@@ -8768,9 +8606,6 @@
       <c r="P56">
         <v>14</v>
       </c>
-      <c r="Q56">
-        <v>104</v>
-      </c>
       <c r="R56" s="28" t="s">
         <v>885</v>
       </c>
@@ -8819,9 +8654,6 @@
       <c r="P57">
         <v>17</v>
       </c>
-      <c r="Q57">
-        <v>106</v>
-      </c>
       <c r="R57" s="28" t="s">
         <v>886</v>
       </c>
@@ -8870,9 +8702,6 @@
       <c r="P58">
         <v>18</v>
       </c>
-      <c r="Q58">
-        <v>108</v>
-      </c>
       <c r="R58" s="28" t="s">
         <v>887</v>
       </c>
@@ -8918,9 +8747,6 @@
       <c r="P59">
         <v>25</v>
       </c>
-      <c r="Q59">
-        <v>125</v>
-      </c>
       <c r="R59" s="28" t="s">
         <v>888</v>
       </c>
@@ -8969,9 +8795,6 @@
       <c r="P60">
         <v>20</v>
       </c>
-      <c r="Q60">
-        <v>114</v>
-      </c>
       <c r="R60" s="28" t="s">
         <v>889</v>
       </c>
@@ -9020,9 +8843,6 @@
       <c r="P61">
         <v>23</v>
       </c>
-      <c r="Q61">
-        <v>117</v>
-      </c>
       <c r="R61" s="28" t="s">
         <v>890</v>
       </c>
@@ -9071,9 +8891,6 @@
       <c r="P62">
         <v>19</v>
       </c>
-      <c r="Q62">
-        <v>110</v>
-      </c>
       <c r="R62" s="28" t="s">
         <v>891</v>
       </c>
@@ -9122,9 +8939,6 @@
       <c r="P63">
         <v>17</v>
       </c>
-      <c r="Q63">
-        <v>112</v>
-      </c>
       <c r="R63" s="28"/>
       <c r="S63" s="29" t="s">
         <v>919</v>
@@ -9171,9 +8985,6 @@
       <c r="P64">
         <v>16</v>
       </c>
-      <c r="Q64">
-        <v>103</v>
-      </c>
       <c r="R64" s="28" t="s">
         <v>892</v>
       </c>
@@ -9222,9 +9033,6 @@
       <c r="P65">
         <v>16</v>
       </c>
-      <c r="Q65">
-        <v>115</v>
-      </c>
       <c r="R65" s="28" t="s">
         <v>893</v>
       </c>
@@ -9273,9 +9081,6 @@
       <c r="P66">
         <v>17</v>
       </c>
-      <c r="Q66">
-        <v>106</v>
-      </c>
       <c r="R66" s="28" t="s">
         <v>894</v>
       </c>
@@ -9324,9 +9129,6 @@
       <c r="P67">
         <v>35</v>
       </c>
-      <c r="Q67">
-        <v>122</v>
-      </c>
       <c r="R67" s="28"/>
       <c r="S67" s="29" t="s">
         <v>923</v>
@@ -9373,9 +9175,6 @@
       <c r="P68">
         <v>20</v>
       </c>
-      <c r="Q68">
-        <v>125</v>
-      </c>
       <c r="R68" s="28" t="s">
         <v>895</v>
       </c>
@@ -9424,9 +9223,6 @@
       <c r="P69">
         <v>20</v>
       </c>
-      <c r="Q69">
-        <v>117</v>
-      </c>
       <c r="R69" s="28" t="s">
         <v>896</v>
       </c>
@@ -9475,9 +9271,6 @@
       <c r="P70">
         <v>20</v>
       </c>
-      <c r="Q70">
-        <v>113</v>
-      </c>
       <c r="R70" s="28" t="s">
         <v>897</v>
       </c>
@@ -9526,9 +9319,6 @@
       <c r="P71">
         <v>16</v>
       </c>
-      <c r="Q71">
-        <v>104</v>
-      </c>
       <c r="R71" s="28"/>
       <c r="S71" s="29" t="s">
         <v>927</v>
@@ -9575,9 +9365,6 @@
       <c r="P72">
         <v>17</v>
       </c>
-      <c r="Q72">
-        <v>110</v>
-      </c>
       <c r="R72" s="28"/>
       <c r="S72" s="29" t="s">
         <v>928</v>
@@ -9624,9 +9411,6 @@
       <c r="P73">
         <v>14</v>
       </c>
-      <c r="Q73">
-        <v>102</v>
-      </c>
       <c r="R73" s="28" t="s">
         <v>898</v>
       </c>
@@ -9675,9 +9459,6 @@
       <c r="P74">
         <v>19</v>
       </c>
-      <c r="Q74">
-        <v>110</v>
-      </c>
       <c r="R74" s="28"/>
       <c r="S74" s="29" t="s">
         <v>930</v>
@@ -9724,9 +9505,6 @@
       <c r="P75">
         <v>20</v>
       </c>
-      <c r="Q75">
-        <v>114</v>
-      </c>
       <c r="R75" s="28" t="s">
         <v>309</v>
       </c>
@@ -9775,9 +9553,6 @@
       <c r="P76">
         <v>20</v>
       </c>
-      <c r="Q76">
-        <v>120</v>
-      </c>
       <c r="R76" s="28"/>
       <c r="S76" s="29" t="s">
         <v>932</v>
@@ -9824,9 +9599,6 @@
       <c r="P77">
         <v>15</v>
       </c>
-      <c r="Q77">
-        <v>115</v>
-      </c>
       <c r="R77" s="28" t="s">
         <v>899</v>
       </c>
@@ -9875,9 +9647,6 @@
       <c r="P78">
         <v>17</v>
       </c>
-      <c r="Q78">
-        <v>107</v>
-      </c>
       <c r="R78" s="28" t="s">
         <v>900</v>
       </c>
@@ -9926,9 +9695,6 @@
       <c r="P79">
         <v>16</v>
       </c>
-      <c r="Q79">
-        <v>114</v>
-      </c>
       <c r="R79" s="28"/>
       <c r="S79" s="29" t="s">
         <v>935</v>
@@ -9975,9 +9741,6 @@
       <c r="P80">
         <v>17</v>
       </c>
-      <c r="Q80">
-        <v>110</v>
-      </c>
       <c r="R80" s="28" t="s">
         <v>901</v>
       </c>
@@ -10026,9 +9789,6 @@
       <c r="P81">
         <v>30</v>
       </c>
-      <c r="Q81">
-        <v>123</v>
-      </c>
       <c r="R81" s="28"/>
       <c r="S81" s="29" t="s">
         <v>937</v>
@@ -10077,9 +9837,6 @@
       <c r="P82">
         <v>18</v>
       </c>
-      <c r="Q82">
-        <v>118</v>
-      </c>
       <c r="R82" s="33" t="s">
         <v>1066</v>
       </c>
@@ -10130,9 +9887,6 @@
       <c r="P83">
         <v>20</v>
       </c>
-      <c r="Q83">
-        <v>113</v>
-      </c>
       <c r="R83" s="33" t="s">
         <v>1067</v>
       </c>
@@ -10183,9 +9937,6 @@
       <c r="P84">
         <v>21</v>
       </c>
-      <c r="Q84">
-        <v>112</v>
-      </c>
       <c r="R84" s="33" t="s">
         <v>1068</v>
       </c>
@@ -10236,9 +9987,6 @@
       <c r="P85">
         <v>20</v>
       </c>
-      <c r="Q85">
-        <v>113</v>
-      </c>
       <c r="R85" s="33" t="s">
         <v>1069</v>
       </c>
@@ -10289,9 +10037,6 @@
       <c r="P86">
         <v>20</v>
       </c>
-      <c r="Q86">
-        <v>118</v>
-      </c>
       <c r="R86" s="33" t="s">
         <v>1070</v>
       </c>
@@ -10342,9 +10087,6 @@
       <c r="P87">
         <v>20</v>
       </c>
-      <c r="Q87">
-        <v>110</v>
-      </c>
       <c r="R87" s="33" t="s">
         <v>1071</v>
       </c>
@@ -10395,9 +10137,6 @@
       <c r="P88">
         <v>24</v>
       </c>
-      <c r="Q88">
-        <v>118</v>
-      </c>
       <c r="R88" s="33"/>
       <c r="S88" s="34" t="s">
         <v>1090</v>
@@ -10446,9 +10185,6 @@
       <c r="P89">
         <v>27</v>
       </c>
-      <c r="Q89">
-        <v>80</v>
-      </c>
       <c r="R89" s="33" t="s">
         <v>1072</v>
       </c>
@@ -10499,9 +10235,6 @@
       <c r="P90">
         <v>22</v>
       </c>
-      <c r="Q90">
-        <v>115</v>
-      </c>
       <c r="R90" s="33" t="s">
         <v>1073</v>
       </c>
@@ -10552,9 +10285,6 @@
       <c r="P91">
         <v>20</v>
       </c>
-      <c r="Q91">
-        <v>115</v>
-      </c>
       <c r="R91" s="33" t="s">
         <v>1074</v>
       </c>
@@ -10605,9 +10335,6 @@
       <c r="P92">
         <v>25</v>
       </c>
-      <c r="Q92">
-        <v>120</v>
-      </c>
       <c r="R92" s="33"/>
       <c r="S92" s="34" t="s">
         <v>1094</v>
@@ -10656,9 +10383,6 @@
       <c r="P93">
         <v>20</v>
       </c>
-      <c r="Q93">
-        <v>120</v>
-      </c>
       <c r="R93" s="33" t="s">
         <v>1075</v>
       </c>
@@ -10709,9 +10433,6 @@
       <c r="P94">
         <v>23</v>
       </c>
-      <c r="Q94">
-        <v>115</v>
-      </c>
       <c r="R94" s="33" t="s">
         <v>1076</v>
       </c>
@@ -10762,9 +10483,6 @@
       <c r="P95">
         <v>18</v>
       </c>
-      <c r="Q95">
-        <v>110</v>
-      </c>
       <c r="R95" s="33" t="s">
         <v>1077</v>
       </c>
@@ -10815,9 +10533,6 @@
       <c r="P96">
         <v>15</v>
       </c>
-      <c r="Q96">
-        <v>110</v>
-      </c>
       <c r="R96" s="33" t="s">
         <v>1078</v>
       </c>
@@ -10868,9 +10583,6 @@
       <c r="P97">
         <v>22</v>
       </c>
-      <c r="Q97">
-        <v>118</v>
-      </c>
       <c r="R97" s="33"/>
       <c r="S97" s="34" t="s">
         <v>1099</v>
@@ -10919,9 +10631,6 @@
       <c r="P98">
         <v>18</v>
       </c>
-      <c r="Q98">
-        <v>112</v>
-      </c>
       <c r="R98" s="33"/>
       <c r="S98" s="34" t="s">
         <v>1100</v>
@@ -10968,9 +10677,6 @@
       <c r="P99">
         <v>23</v>
       </c>
-      <c r="Q99">
-        <v>118</v>
-      </c>
       <c r="R99" s="33" t="s">
         <v>1079</v>
       </c>
@@ -11021,9 +10727,6 @@
       <c r="P100">
         <v>16</v>
       </c>
-      <c r="Q100">
-        <v>110</v>
-      </c>
       <c r="R100" s="33" t="s">
         <v>1080</v>
       </c>
@@ -11074,9 +10777,6 @@
       <c r="P101">
         <v>25</v>
       </c>
-      <c r="Q101">
-        <v>120</v>
-      </c>
       <c r="R101" s="33" t="s">
         <v>1081</v>
       </c>
@@ -11127,9 +10827,6 @@
       <c r="P102">
         <v>27</v>
       </c>
-      <c r="Q102">
-        <v>121</v>
-      </c>
       <c r="R102" s="33"/>
       <c r="S102" s="34" t="s">
         <v>1104</v>
@@ -11178,9 +10875,6 @@
       <c r="P103">
         <v>22</v>
       </c>
-      <c r="Q103">
-        <v>118</v>
-      </c>
       <c r="R103" s="33"/>
       <c r="S103" s="34" t="s">
         <v>1105</v>
@@ -11229,9 +10923,6 @@
       <c r="P104">
         <v>17</v>
       </c>
-      <c r="Q104">
-        <v>112</v>
-      </c>
       <c r="R104" s="33" t="s">
         <v>221</v>
       </c>
@@ -11282,9 +10973,6 @@
       <c r="P105">
         <v>23</v>
       </c>
-      <c r="Q105">
-        <v>119</v>
-      </c>
       <c r="R105" s="33" t="s">
         <v>1082</v>
       </c>
@@ -11335,9 +11023,6 @@
       <c r="P106">
         <v>16</v>
       </c>
-      <c r="Q106">
-        <v>110</v>
-      </c>
       <c r="R106" s="33"/>
       <c r="S106" s="34" t="s">
         <v>1108</v>
@@ -11386,9 +11071,6 @@
       <c r="P107">
         <v>19</v>
       </c>
-      <c r="Q107">
-        <v>119</v>
-      </c>
       <c r="R107" s="33" t="s">
         <v>1083</v>
       </c>
@@ -11439,9 +11121,6 @@
       <c r="P108">
         <v>25</v>
       </c>
-      <c r="Q108">
-        <v>120</v>
-      </c>
       <c r="R108" s="38" t="s">
         <v>1222</v>
       </c>
@@ -11492,9 +11171,6 @@
       <c r="P109">
         <v>22</v>
       </c>
-      <c r="Q109">
-        <v>117</v>
-      </c>
       <c r="R109" s="38" t="s">
         <v>1223</v>
       </c>
@@ -11545,9 +11221,6 @@
       <c r="P110">
         <v>25</v>
       </c>
-      <c r="Q110">
-        <v>125</v>
-      </c>
       <c r="R110" s="38"/>
       <c r="S110" s="39" t="s">
         <v>1239</v>
@@ -11596,9 +11269,6 @@
       <c r="P111">
         <v>18</v>
       </c>
-      <c r="Q111">
-        <v>110</v>
-      </c>
       <c r="R111" s="38" t="s">
         <v>1224</v>
       </c>
@@ -11649,9 +11319,6 @@
       <c r="P112">
         <v>20</v>
       </c>
-      <c r="Q112">
-        <v>120</v>
-      </c>
       <c r="R112" s="38"/>
       <c r="S112" s="39" t="s">
         <v>1241</v>
@@ -11700,9 +11367,6 @@
       <c r="P113">
         <v>20</v>
       </c>
-      <c r="Q113">
-        <v>110</v>
-      </c>
       <c r="R113" s="38" t="s">
         <v>1225</v>
       </c>
@@ -11753,9 +11417,6 @@
       <c r="P114">
         <v>23</v>
       </c>
-      <c r="Q114">
-        <v>82</v>
-      </c>
       <c r="R114" s="38" t="s">
         <v>1226</v>
       </c>
@@ -11806,9 +11467,6 @@
       <c r="P115">
         <v>33</v>
       </c>
-      <c r="Q115">
-        <v>135</v>
-      </c>
       <c r="R115" s="38" t="s">
         <v>1227</v>
       </c>
@@ -11859,9 +11517,6 @@
       <c r="P116">
         <v>20</v>
       </c>
-      <c r="Q116">
-        <v>118</v>
-      </c>
       <c r="R116" s="38" t="s">
         <v>1228</v>
       </c>
@@ -11909,9 +11564,6 @@
       <c r="P117">
         <v>26</v>
       </c>
-      <c r="Q117">
-        <v>112</v>
-      </c>
       <c r="R117" s="38" t="s">
         <v>1229</v>
       </c>
@@ -11962,9 +11614,6 @@
       <c r="P118">
         <v>28</v>
       </c>
-      <c r="Q118">
-        <v>124</v>
-      </c>
       <c r="R118" s="38"/>
       <c r="S118" s="39" t="s">
         <v>1247</v>
@@ -12013,9 +11662,6 @@
       <c r="P119">
         <v>30</v>
       </c>
-      <c r="Q119">
-        <v>120</v>
-      </c>
       <c r="R119" s="38"/>
       <c r="S119" s="39" t="s">
         <v>1248</v>
@@ -12064,9 +11710,6 @@
       <c r="P120">
         <v>35</v>
       </c>
-      <c r="Q120">
-        <v>126</v>
-      </c>
       <c r="R120" s="38" t="s">
         <v>1230</v>
       </c>
@@ -12117,9 +11760,6 @@
       <c r="P121">
         <v>22</v>
       </c>
-      <c r="Q121">
-        <v>110</v>
-      </c>
       <c r="R121" s="38"/>
       <c r="S121" s="39" t="s">
         <v>1250</v>
@@ -12168,9 +11808,6 @@
       <c r="P122">
         <v>22</v>
       </c>
-      <c r="Q122">
-        <v>122</v>
-      </c>
       <c r="R122" s="38" t="s">
         <v>1231</v>
       </c>
@@ -12221,9 +11858,6 @@
       <c r="P123">
         <v>20</v>
       </c>
-      <c r="Q123">
-        <v>120</v>
-      </c>
       <c r="R123" s="38"/>
       <c r="S123" s="39" t="s">
         <v>1252</v>
@@ -12272,9 +11906,6 @@
       <c r="P124">
         <v>26</v>
       </c>
-      <c r="Q124">
-        <v>136</v>
-      </c>
       <c r="R124" s="38"/>
       <c r="S124" s="39" t="s">
         <v>1253</v>
@@ -12323,9 +11954,6 @@
       <c r="P125">
         <v>22</v>
       </c>
-      <c r="Q125">
-        <v>115</v>
-      </c>
       <c r="R125" s="38" t="s">
         <v>1232</v>
       </c>
@@ -12376,9 +12004,6 @@
       <c r="P126">
         <v>25</v>
       </c>
-      <c r="Q126">
-        <v>120</v>
-      </c>
       <c r="R126" s="38" t="s">
         <v>1233</v>
       </c>
@@ -12429,9 +12054,6 @@
       <c r="P127">
         <v>22</v>
       </c>
-      <c r="Q127">
-        <v>120</v>
-      </c>
       <c r="R127" s="38" t="s">
         <v>1234</v>
       </c>
@@ -12479,9 +12101,6 @@
       <c r="P128">
         <v>15</v>
       </c>
-      <c r="Q128">
-        <v>112</v>
-      </c>
       <c r="R128" s="38"/>
       <c r="S128" s="39" t="s">
         <v>1257</v>
@@ -12530,9 +12149,6 @@
       <c r="P129">
         <v>21</v>
       </c>
-      <c r="Q129">
-        <v>125</v>
-      </c>
       <c r="R129" s="38" t="s">
         <v>1235</v>
       </c>
@@ -12580,9 +12196,6 @@
       <c r="P130">
         <v>20</v>
       </c>
-      <c r="Q130">
-        <v>120</v>
-      </c>
       <c r="R130" s="38" t="s">
         <v>1236</v>
       </c>
@@ -12633,9 +12246,6 @@
       <c r="P131">
         <v>25</v>
       </c>
-      <c r="Q131">
-        <v>130</v>
-      </c>
       <c r="R131" s="38" t="s">
         <v>625</v>
       </c>
@@ -12686,9 +12296,6 @@
       <c r="P132">
         <v>28</v>
       </c>
-      <c r="Q132">
-        <v>127</v>
-      </c>
       <c r="R132" s="43" t="s">
         <v>1378</v>
       </c>
@@ -12736,9 +12343,6 @@
       <c r="P133">
         <v>25</v>
       </c>
-      <c r="Q133">
-        <v>125</v>
-      </c>
       <c r="R133" s="43" t="s">
         <v>1379</v>
       </c>
@@ -12786,9 +12390,6 @@
       <c r="P134">
         <v>19</v>
       </c>
-      <c r="Q134">
-        <v>110</v>
-      </c>
       <c r="R134" s="43" t="s">
         <v>1380</v>
       </c>
@@ -12839,9 +12440,6 @@
       <c r="P135">
         <v>25</v>
       </c>
-      <c r="Q135">
-        <v>109</v>
-      </c>
       <c r="R135" s="43" t="s">
         <v>1381</v>
       </c>
@@ -12892,9 +12490,6 @@
       <c r="P136">
         <v>23</v>
       </c>
-      <c r="Q136">
-        <v>123</v>
-      </c>
       <c r="R136" s="43" t="s">
         <v>1382</v>
       </c>
@@ -12945,9 +12540,6 @@
       <c r="P137">
         <v>30</v>
       </c>
-      <c r="Q137">
-        <v>133</v>
-      </c>
       <c r="R137" s="43" t="s">
         <v>1383</v>
       </c>
@@ -12998,9 +12590,6 @@
       <c r="P138">
         <v>25</v>
       </c>
-      <c r="Q138">
-        <v>122</v>
-      </c>
       <c r="R138" s="43" t="s">
         <v>1384</v>
       </c>
@@ -13051,9 +12640,6 @@
       <c r="P139">
         <v>27</v>
       </c>
-      <c r="Q139">
-        <v>123</v>
-      </c>
       <c r="R139" s="43" t="s">
         <v>1385</v>
       </c>
@@ -13104,9 +12690,6 @@
       <c r="P140">
         <v>22</v>
       </c>
-      <c r="Q140">
-        <v>125</v>
-      </c>
       <c r="R140" s="43" t="s">
         <v>1386</v>
       </c>
@@ -13157,9 +12740,6 @@
       <c r="P141">
         <v>24</v>
       </c>
-      <c r="Q141">
-        <v>128</v>
-      </c>
       <c r="R141" s="43" t="s">
         <v>1387</v>
       </c>
@@ -13210,9 +12790,6 @@
       <c r="P142">
         <v>26</v>
       </c>
-      <c r="Q142">
-        <v>125</v>
-      </c>
       <c r="R142" s="43" t="s">
         <v>1388</v>
       </c>
@@ -13263,9 +12840,6 @@
       <c r="P143">
         <v>25</v>
       </c>
-      <c r="Q143">
-        <v>125</v>
-      </c>
       <c r="R143" s="43" t="s">
         <v>1389</v>
       </c>
@@ -13314,9 +12888,6 @@
       <c r="P144">
         <v>25</v>
       </c>
-      <c r="Q144">
-        <v>125</v>
-      </c>
       <c r="R144" s="43" t="s">
         <v>1390</v>
       </c>
@@ -13367,9 +12938,6 @@
       <c r="P145">
         <v>35</v>
       </c>
-      <c r="Q145">
-        <v>140</v>
-      </c>
       <c r="R145" s="43" t="s">
         <v>1391</v>
       </c>
@@ -13420,9 +12988,6 @@
       <c r="P146">
         <v>31</v>
       </c>
-      <c r="Q146">
-        <v>135</v>
-      </c>
       <c r="R146" s="43" t="s">
         <v>1392</v>
       </c>
@@ -13473,9 +13038,6 @@
       <c r="P147">
         <v>35</v>
       </c>
-      <c r="Q147">
-        <v>135</v>
-      </c>
       <c r="R147" s="43" t="s">
         <v>1393</v>
       </c>
@@ -13526,9 +13088,6 @@
       <c r="P148">
         <v>21</v>
       </c>
-      <c r="Q148">
-        <v>120</v>
-      </c>
       <c r="R148" s="43" t="s">
         <v>1394</v>
       </c>
@@ -13579,9 +13138,6 @@
       <c r="P149">
         <v>25</v>
       </c>
-      <c r="Q149">
-        <v>135</v>
-      </c>
       <c r="R149" s="43" t="s">
         <v>1395</v>
       </c>
@@ -13632,9 +13188,6 @@
       <c r="P150">
         <v>30</v>
       </c>
-      <c r="Q150">
-        <v>135</v>
-      </c>
       <c r="R150" s="43" t="s">
         <v>1396</v>
       </c>
@@ -13682,9 +13235,6 @@
       <c r="P151">
         <v>25</v>
       </c>
-      <c r="Q151">
-        <v>120</v>
-      </c>
       <c r="R151" s="43" t="s">
         <v>1397</v>
       </c>
@@ -13735,9 +13285,6 @@
       <c r="P152">
         <v>20</v>
       </c>
-      <c r="Q152">
-        <v>117</v>
-      </c>
       <c r="R152" s="43" t="s">
         <v>1398</v>
       </c>
@@ -13788,9 +13335,6 @@
       <c r="P153">
         <v>25</v>
       </c>
-      <c r="Q153">
-        <v>134</v>
-      </c>
       <c r="R153" s="43" t="s">
         <v>1399</v>
       </c>
@@ -13841,9 +13385,6 @@
       <c r="P154">
         <v>26</v>
       </c>
-      <c r="Q154">
-        <v>134</v>
-      </c>
       <c r="R154" s="43" t="s">
         <v>1400</v>
       </c>
@@ -13894,9 +13435,6 @@
       <c r="P155">
         <v>21</v>
       </c>
-      <c r="Q155">
-        <v>125</v>
-      </c>
       <c r="R155" s="43" t="s">
         <v>1401</v>
       </c>
@@ -13947,9 +13485,6 @@
       <c r="P156">
         <v>19</v>
       </c>
-      <c r="Q156">
-        <v>118</v>
-      </c>
       <c r="R156" s="48" t="s">
         <v>1548</v>
       </c>
@@ -14000,9 +13535,6 @@
       <c r="P157">
         <v>34</v>
       </c>
-      <c r="Q157">
-        <v>134</v>
-      </c>
       <c r="R157" s="48" t="s">
         <v>1549</v>
       </c>
@@ -14053,9 +13585,6 @@
       <c r="P158">
         <v>24</v>
       </c>
-      <c r="Q158">
-        <v>131</v>
-      </c>
       <c r="R158" s="48" t="s">
         <v>1550</v>
       </c>
@@ -14104,9 +13633,6 @@
       <c r="P159">
         <v>21</v>
       </c>
-      <c r="Q159">
-        <v>118</v>
-      </c>
       <c r="R159" s="48" t="s">
         <v>1551</v>
       </c>
@@ -14157,9 +13683,6 @@
       <c r="P160">
         <v>24</v>
       </c>
-      <c r="Q160">
-        <v>124</v>
-      </c>
       <c r="R160" s="48" t="s">
         <v>1552</v>
       </c>
@@ -14210,9 +13733,6 @@
       <c r="P161">
         <v>30</v>
       </c>
-      <c r="Q161">
-        <v>130</v>
-      </c>
       <c r="R161" s="48" t="s">
         <v>1553</v>
       </c>
@@ -14263,9 +13783,6 @@
       <c r="P162">
         <v>33</v>
       </c>
-      <c r="Q162">
-        <v>140</v>
-      </c>
       <c r="R162" s="48" t="s">
         <v>1554</v>
       </c>
@@ -14316,9 +13833,6 @@
       <c r="P163">
         <v>21</v>
       </c>
-      <c r="Q163">
-        <v>125</v>
-      </c>
       <c r="R163" s="48" t="s">
         <v>1555</v>
       </c>
@@ -14369,9 +13883,6 @@
       <c r="P164">
         <v>21</v>
       </c>
-      <c r="Q164">
-        <v>122</v>
-      </c>
       <c r="R164" s="48" t="s">
         <v>1556</v>
       </c>
@@ -14422,9 +13933,6 @@
       <c r="P165">
         <v>22</v>
       </c>
-      <c r="Q165">
-        <v>132</v>
-      </c>
       <c r="R165" s="48" t="s">
         <v>1557</v>
       </c>
@@ -14475,9 +13983,6 @@
       <c r="P166">
         <v>20</v>
       </c>
-      <c r="Q166">
-        <v>122</v>
-      </c>
       <c r="R166" s="48" t="s">
         <v>1558</v>
       </c>
@@ -14528,9 +14033,6 @@
       <c r="P167">
         <v>26</v>
       </c>
-      <c r="Q167">
-        <v>122</v>
-      </c>
       <c r="R167" s="48" t="s">
         <v>1559</v>
       </c>
@@ -14581,9 +14083,6 @@
       <c r="P168">
         <v>22</v>
       </c>
-      <c r="Q168">
-        <v>128</v>
-      </c>
       <c r="R168" s="48" t="s">
         <v>1560</v>
       </c>
@@ -14634,9 +14133,6 @@
       <c r="P169">
         <v>28</v>
       </c>
-      <c r="Q169">
-        <v>138</v>
-      </c>
       <c r="R169" s="48" t="s">
         <v>1561</v>
       </c>
@@ -14687,9 +14183,6 @@
       <c r="P170">
         <v>18</v>
       </c>
-      <c r="Q170">
-        <v>123</v>
-      </c>
       <c r="R170" s="48" t="s">
         <v>1562</v>
       </c>
@@ -14740,9 +14233,6 @@
       <c r="P171">
         <v>22</v>
       </c>
-      <c r="Q171">
-        <v>130</v>
-      </c>
       <c r="R171" s="48" t="s">
         <v>1563</v>
       </c>
@@ -14793,9 +14283,6 @@
       <c r="P172">
         <v>21</v>
       </c>
-      <c r="Q172">
-        <v>124</v>
-      </c>
       <c r="R172" s="48" t="s">
         <v>1564</v>
       </c>
@@ -14846,9 +14333,6 @@
       <c r="P173">
         <v>20</v>
       </c>
-      <c r="Q173">
-        <v>124</v>
-      </c>
       <c r="R173" s="48" t="s">
         <v>1565</v>
       </c>
@@ -14899,9 +14383,6 @@
       <c r="P174">
         <v>22</v>
       </c>
-      <c r="Q174">
-        <v>124</v>
-      </c>
       <c r="R174" s="48" t="s">
         <v>1566</v>
       </c>
@@ -14952,9 +14433,6 @@
       <c r="P175">
         <v>24</v>
       </c>
-      <c r="Q175">
-        <v>130</v>
-      </c>
       <c r="R175" s="48" t="s">
         <v>1567</v>
       </c>
@@ -15005,9 +14483,6 @@
       <c r="P176">
         <v>20</v>
       </c>
-      <c r="Q176">
-        <v>132</v>
-      </c>
       <c r="R176" s="48" t="s">
         <v>1568</v>
       </c>
@@ -15058,9 +14533,6 @@
       <c r="P177">
         <v>19</v>
       </c>
-      <c r="Q177">
-        <v>120</v>
-      </c>
       <c r="R177" s="48" t="s">
         <v>1569</v>
       </c>
@@ -15111,9 +14583,6 @@
       <c r="P178">
         <v>24</v>
       </c>
-      <c r="Q178">
-        <v>132</v>
-      </c>
       <c r="R178" s="48" t="s">
         <v>1570</v>
       </c>
@@ -15161,9 +14630,6 @@
       <c r="P179">
         <v>30</v>
       </c>
-      <c r="Q179">
-        <v>130</v>
-      </c>
       <c r="R179" s="48" t="s">
         <v>1571</v>
       </c>
@@ -15211,9 +14677,6 @@
       <c r="P180">
         <v>35</v>
       </c>
-      <c r="Q180">
-        <v>140</v>
-      </c>
       <c r="R180" s="48" t="s">
         <v>893</v>
       </c>
@@ -15261,9 +14724,6 @@
       <c r="P181">
         <v>32</v>
       </c>
-      <c r="Q181">
-        <v>135</v>
-      </c>
       <c r="R181" s="53" t="s">
         <v>1719</v>
       </c>
@@ -15311,9 +14771,6 @@
       <c r="P182">
         <v>32</v>
       </c>
-      <c r="Q182">
-        <v>138</v>
-      </c>
       <c r="R182" s="53" t="s">
         <v>1720</v>
       </c>
@@ -15361,9 +14818,6 @@
       <c r="P183">
         <v>29</v>
       </c>
-      <c r="Q183">
-        <v>130</v>
-      </c>
       <c r="R183" s="53" t="s">
         <v>1721</v>
       </c>
@@ -15411,9 +14865,6 @@
       <c r="P184">
         <v>23</v>
       </c>
-      <c r="Q184">
-        <v>130</v>
-      </c>
       <c r="R184" s="53" t="s">
         <v>1722</v>
       </c>
@@ -15461,9 +14912,6 @@
       <c r="P185">
         <v>25</v>
       </c>
-      <c r="Q185">
-        <v>125</v>
-      </c>
       <c r="R185" s="53" t="s">
         <v>1723</v>
       </c>
@@ -15511,9 +14959,6 @@
       <c r="P186">
         <v>20</v>
       </c>
-      <c r="Q186">
-        <v>126</v>
-      </c>
       <c r="R186" s="53" t="s">
         <v>1724</v>
       </c>
@@ -15561,9 +15006,6 @@
       <c r="P187">
         <v>25</v>
       </c>
-      <c r="Q187">
-        <v>137</v>
-      </c>
       <c r="R187" s="53" t="s">
         <v>1725</v>
       </c>
@@ -15611,9 +15053,6 @@
       <c r="P188">
         <v>29</v>
       </c>
-      <c r="Q188">
-        <v>139</v>
-      </c>
       <c r="R188" s="53" t="s">
         <v>1726</v>
       </c>
@@ -15661,9 +15100,6 @@
       <c r="P189">
         <v>22</v>
       </c>
-      <c r="Q189">
-        <v>135</v>
-      </c>
       <c r="R189" s="53" t="s">
         <v>1727</v>
       </c>
@@ -15711,9 +15147,6 @@
       <c r="P190">
         <v>25</v>
       </c>
-      <c r="Q190">
-        <v>131</v>
-      </c>
       <c r="R190" s="53" t="s">
         <v>1728</v>
       </c>
@@ -15761,9 +15194,6 @@
       <c r="P191">
         <v>21</v>
       </c>
-      <c r="Q191">
-        <v>136</v>
-      </c>
       <c r="R191" s="53" t="s">
         <v>1729</v>
       </c>
@@ -15811,9 +15241,6 @@
       <c r="P192">
         <v>24</v>
       </c>
-      <c r="Q192">
-        <v>134</v>
-      </c>
       <c r="R192" s="53" t="s">
         <v>1730</v>
       </c>
@@ -15861,9 +15288,6 @@
       <c r="P193">
         <v>24</v>
       </c>
-      <c r="Q193">
-        <v>132</v>
-      </c>
       <c r="R193" s="53" t="s">
         <v>1731</v>
       </c>
@@ -15911,9 +15335,6 @@
       <c r="P194">
         <v>29</v>
       </c>
-      <c r="Q194">
-        <v>140</v>
-      </c>
       <c r="R194" s="53" t="s">
         <v>1732</v>
       </c>
@@ -15961,9 +15382,6 @@
       <c r="P195">
         <v>25</v>
       </c>
-      <c r="Q195">
-        <v>125</v>
-      </c>
       <c r="R195" s="53" t="s">
         <v>626</v>
       </c>
@@ -16011,9 +15429,6 @@
       <c r="P196">
         <v>24</v>
       </c>
-      <c r="Q196">
-        <v>132</v>
-      </c>
       <c r="R196" s="53" t="s">
         <v>899</v>
       </c>
@@ -16061,9 +15476,6 @@
       <c r="P197">
         <v>22</v>
       </c>
-      <c r="Q197">
-        <v>125</v>
-      </c>
       <c r="R197" s="53" t="s">
         <v>1733</v>
       </c>
@@ -16111,9 +15523,6 @@
       <c r="P198">
         <v>32</v>
       </c>
-      <c r="Q198">
-        <v>146</v>
-      </c>
       <c r="R198" s="53" t="s">
         <v>1734</v>
       </c>
@@ -16161,9 +15570,6 @@
       <c r="P199">
         <v>35</v>
       </c>
-      <c r="Q199">
-        <v>135</v>
-      </c>
       <c r="R199" s="53" t="s">
         <v>1735</v>
       </c>
@@ -16211,9 +15617,6 @@
       <c r="P200">
         <v>25</v>
       </c>
-      <c r="Q200">
-        <v>139</v>
-      </c>
       <c r="R200" s="53" t="s">
         <v>1736</v>
       </c>
@@ -16261,9 +15664,6 @@
       <c r="P201">
         <v>35</v>
       </c>
-      <c r="Q201">
-        <v>135</v>
-      </c>
       <c r="R201" s="53" t="s">
         <v>1737</v>
       </c>
@@ -16311,9 +15711,6 @@
       <c r="P202">
         <v>26</v>
       </c>
-      <c r="Q202">
-        <v>139</v>
-      </c>
       <c r="R202" s="53" t="s">
         <v>1738</v>
       </c>
@@ -16361,9 +15758,6 @@
       <c r="P203">
         <v>26</v>
       </c>
-      <c r="Q203">
-        <v>137</v>
-      </c>
       <c r="R203" s="53" t="s">
         <v>1739</v>
       </c>
@@ -16411,9 +15805,6 @@
       <c r="P204">
         <v>26</v>
       </c>
-      <c r="Q204">
-        <v>140</v>
-      </c>
       <c r="R204" s="53" t="s">
         <v>1740</v>
       </c>
@@ -16460,9 +15851,6 @@
       <c r="N205" s="52"/>
       <c r="P205">
         <v>29</v>
-      </c>
-      <c r="Q205">
-        <v>137</v>
       </c>
       <c r="R205" s="53" t="s">
         <v>1741</v>
